--- a/Documentation/customerMaterials.xlsx
+++ b/Documentation/customerMaterials.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Клиенты" sheetId="1" r:id="rId1"/>
     <sheet name="Расходы" sheetId="2" r:id="rId2"/>
     <sheet name="Доходы" sheetId="3" r:id="rId3"/>
     <sheet name="Запись" sheetId="4" r:id="rId4"/>
+    <sheet name="Годовой отчёт" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="54">
   <si>
     <t>Имя клиента</t>
   </si>
@@ -131,12 +132,63 @@
   </si>
   <si>
     <t>Дерматолог/консультация</t>
+  </si>
+  <si>
+    <t>Тип операции</t>
+  </si>
+  <si>
+    <t>Итог по доходам:</t>
+  </si>
+  <si>
+    <t>Итог по расходам:</t>
+  </si>
+  <si>
+    <t>Результирующий годовой баланс</t>
+  </si>
+  <si>
+    <t>Чистая годовая прибыль:</t>
+  </si>
+  <si>
+    <t>Источник</t>
+  </si>
+  <si>
+    <t>2/3</t>
+  </si>
+  <si>
+    <t>6/12</t>
+  </si>
+  <si>
+    <t>Клиент:567343</t>
+  </si>
+  <si>
+    <t>Клиент:423163</t>
+  </si>
+  <si>
+    <t>7/4</t>
+  </si>
+  <si>
+    <t>12/24</t>
+  </si>
+  <si>
+    <t>Закупка бинтов x25</t>
+  </si>
+  <si>
+    <t>Счета за эл-во</t>
+  </si>
+  <si>
+    <t>МедФарм</t>
+  </si>
+  <si>
+    <t>КолЭнерго</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -146,7 +198,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -159,8 +211,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -183,11 +241,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -198,6 +265,25 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -772,7 +858,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -843,4 +929,142 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="1">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="D4" s="4">
+        <f>SUM(D2:D3)</f>
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="9">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="D7" s="4">
+        <f>SUM(D5:D6)</f>
+        <v>5100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="10">
+        <f>D4/D7</f>
+        <v>1.7647058823529411</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10">
+        <f>D4-D7</f>
+        <v>3900</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>